--- a/2020/January/All Details/29.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/29.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\29.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A3B29-BC81-41AE-9C90-C0D9DB8D384D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB69D9-19AA-4146-9F8F-AF4B4AEC7FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3561,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1913044</v>
+        <v>1693044</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3653,7 +3653,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="107">
-        <v>-457743.9450000003</v>
+        <v>-237743.9450000003</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -4051,7 +4051,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="115">
-        <v>537680</v>
+        <v>437680</v>
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="100"/>
